--- a/鳳梨各縣市生產成本V3.xlsx
+++ b/鳳梨各縣市生產成本V3.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,13 +143,17 @@
   </si>
   <si>
     <t>農機具費(依照TGAP1公頃田區首次需購入中耕機、除草機、噴藥機、搬運車)與灌溉系統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含農機具_成本(元/公傾)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -276,55 +280,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -448,6 +422,151 @@
       <left/>
       <right/>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -459,39 +578,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -772,453 +892,476 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" customWidth="1"/>
-    <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" customWidth="1"/>
+    <col min="2" max="3" width="10.3984375" customWidth="1"/>
+    <col min="4" max="5" width="13.8984375" customWidth="1"/>
+    <col min="6" max="6" width="25.69921875" customWidth="1"/>
+    <col min="7" max="8" width="16.09765625" customWidth="1"/>
+    <col min="9" max="9" width="17.296875" customWidth="1"/>
+    <col min="13" max="13" width="10.69921875" customWidth="1"/>
+    <col min="16" max="16" width="7.3984375" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="8.09765625" customWidth="1"/>
+    <col min="19" max="19" width="16.296875" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="13.8984375" customWidth="1"/>
+    <col min="22" max="22" width="16.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="T1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="27">
         <f>E2-H2</f>
         <v>72839</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="28">
         <v>953982</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="28">
         <v>15.05</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="28">
         <v>48040</v>
       </c>
-      <c r="H2" s="23">
-        <f>P2+U2</f>
+      <c r="H2" s="28">
+        <f>Q2+V2</f>
         <v>881143</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="29">
+        <f>Q2+V2-T2</f>
+        <v>651143</v>
+      </c>
+      <c r="J2" s="9">
         <v>112910</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>61256</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>17920</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>18551</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>4202</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <f>175085+151843</f>
         <v>326928</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>30910</v>
       </c>
-      <c r="P2" s="17">
-        <f>SUM(I2:O2)</f>
+      <c r="Q2" s="13">
+        <f>SUM(J2:P2)</f>
         <v>572677</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="R2" s="9">
         <v>51680</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <f>1979*10+2396</f>
         <v>22186</v>
       </c>
-      <c r="S2" s="31">
+      <c r="T2" s="21">
         <v>230000</v>
       </c>
-      <c r="T2" s="3">
-        <f>S2*0.02</f>
+      <c r="U2" s="3">
+        <f>T2*0.02</f>
         <v>4600</v>
       </c>
-      <c r="U2" s="17">
-        <f>SUM(Q2:T2)</f>
+      <c r="V2" s="13">
+        <f>SUM(R2:U2)</f>
         <v>308466</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="27">
         <f t="shared" ref="D3:D6" si="0">E3-H3</f>
         <v>238768</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="14">
         <v>1140673</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="14">
         <v>20.43</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="14">
         <v>50447</v>
       </c>
-      <c r="H3" s="23">
-        <f t="shared" ref="H3:H6" si="1">P3+U3</f>
+      <c r="H3" s="14">
+        <f t="shared" ref="H3:H6" si="1">Q3+V3</f>
         <v>901905</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="29">
+        <f t="shared" ref="I3:I6" si="2">Q3+V3-T3</f>
+        <v>671905</v>
+      </c>
+      <c r="J3" s="10">
         <v>125182</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>64401</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>20929</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>19831</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>4048</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <f>178544+145411</f>
         <v>323955</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>31431</v>
       </c>
-      <c r="P3" s="17">
-        <f t="shared" ref="P3:P6" si="2">SUM(I3:O3)</f>
+      <c r="Q3" s="13">
+        <f t="shared" ref="Q3:Q6" si="3">SUM(J3:P3)</f>
         <v>589777</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="R3" s="10">
         <v>55383</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <f>1954*10+2605</f>
         <v>22145</v>
       </c>
-      <c r="S3" s="31">
+      <c r="T3" s="21">
         <v>230000</v>
       </c>
-      <c r="T3" s="3">
-        <f t="shared" ref="T3:T6" si="3">S3*0.02</f>
+      <c r="U3" s="3">
+        <f t="shared" ref="U3:U6" si="4">T3*0.02</f>
         <v>4600</v>
       </c>
-      <c r="U3" s="17">
-        <f t="shared" ref="U3:U6" si="4">SUM(Q3:T3)</f>
+      <c r="V3" s="13">
+        <f t="shared" ref="V3:V6" si="5">SUM(R3:U3)</f>
         <v>312128</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="27">
         <f t="shared" si="0"/>
         <v>410586</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="14">
         <v>1148565</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="14">
         <v>18.37</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="14">
         <v>48933</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="14">
         <f t="shared" si="1"/>
         <v>737979</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="29">
+        <f t="shared" si="2"/>
+        <v>507979</v>
+      </c>
+      <c r="J4" s="10">
         <v>111467</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>57740</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>18913</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>18491</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>4029</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <f>175472+12497</f>
         <v>187969</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>31878</v>
       </c>
-      <c r="P4" s="17">
-        <f t="shared" si="2"/>
+      <c r="Q4" s="13">
+        <f t="shared" si="3"/>
         <v>430487</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="R4" s="10">
         <v>49103</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <f>2099*10+2799</f>
         <v>23789</v>
       </c>
-      <c r="S4" s="31">
+      <c r="T4" s="21">
         <v>230000</v>
       </c>
-      <c r="T4" s="3">
-        <f t="shared" si="3"/>
+      <c r="U4" s="3">
+        <f t="shared" si="4"/>
         <v>4600</v>
       </c>
-      <c r="U4" s="17">
-        <f t="shared" si="4"/>
+      <c r="V4" s="13">
+        <f t="shared" si="5"/>
         <v>307492</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="27">
         <f t="shared" si="0"/>
         <v>242707</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="14">
         <v>1109646</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="14">
         <v>18.920000000000002</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="14">
         <v>48709</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="14">
         <f t="shared" si="1"/>
         <v>866939</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="29">
+        <f t="shared" si="2"/>
+        <v>636939</v>
+      </c>
+      <c r="J5" s="10">
         <v>111171</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>62579</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>19774</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>20717</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>4271</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <f>179496+129537</f>
         <v>309033</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>33474</v>
       </c>
-      <c r="P5" s="17">
-        <f t="shared" si="2"/>
+      <c r="Q5" s="13">
+        <f t="shared" si="3"/>
         <v>561019</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="R5" s="10">
         <v>46217</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <f>2215*10+2953</f>
         <v>25103</v>
       </c>
-      <c r="S5" s="31">
+      <c r="T5" s="21">
         <v>230000</v>
       </c>
-      <c r="T5" s="3">
-        <f t="shared" si="3"/>
+      <c r="U5" s="3">
+        <f t="shared" si="4"/>
         <v>4600</v>
       </c>
-      <c r="U5" s="17">
-        <f t="shared" si="4"/>
+      <c r="V5" s="13">
+        <f t="shared" si="5"/>
         <v>305920</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="27">
         <f t="shared" si="0"/>
-        <v>561461</v>
-      </c>
-      <c r="E6" s="25">
+        <v>428861</v>
+      </c>
+      <c r="E6" s="15">
         <v>1284079</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="15">
         <v>22.15</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="15">
         <v>53572</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="15">
         <f t="shared" si="1"/>
-        <v>722618</v>
-      </c>
-      <c r="I6" s="7">
+        <v>855218</v>
+      </c>
+      <c r="I6" s="29">
+        <f t="shared" si="2"/>
+        <v>625218</v>
+      </c>
+      <c r="J6" s="11">
         <v>97793</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="6">
         <v>59197</v>
       </c>
-      <c r="K6" s="8">
+      <c r="L6" s="6">
         <v>20931</v>
       </c>
-      <c r="L6" s="8">
+      <c r="M6" s="6">
         <v>20968</v>
       </c>
-      <c r="M6" s="8">
+      <c r="N6" s="6">
         <v>4545</v>
       </c>
-      <c r="N6" s="8">
+      <c r="O6" s="6">
         <f>182926+118568</f>
         <v>301494</v>
       </c>
-      <c r="O6" s="8">
+      <c r="P6" s="6">
         <v>31517</v>
       </c>
-      <c r="P6" s="17">
-        <f t="shared" si="2"/>
+      <c r="Q6" s="13">
+        <f t="shared" si="3"/>
         <v>536445</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="R6" s="11">
         <v>56588</v>
       </c>
-      <c r="R6" s="8">
+      <c r="S6" s="6">
         <f>2434*10+3245</f>
         <v>27585</v>
       </c>
-      <c r="S6" s="31">
-        <v>100000</v>
-      </c>
-      <c r="T6" s="3">
-        <f t="shared" si="3"/>
-        <v>2000</v>
-      </c>
-      <c r="U6" s="17">
+      <c r="T6" s="21">
+        <v>230000</v>
+      </c>
+      <c r="U6" s="3">
         <f t="shared" si="4"/>
-        <v>186173</v>
+        <v>4600</v>
+      </c>
+      <c r="V6" s="13">
+        <f t="shared" si="5"/>
+        <v>318773</v>
       </c>
     </row>
   </sheetData>
